--- a/stimProfile.xlsx
+++ b/stimProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zixuan/Documents/face_loc_Mooney/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C38FA3-3D0E-6E43-B73B-1C7C6109D46F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E839303A-479C-414A-A028-98016280F2EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="1460" windowWidth="27240" windowHeight="15480" xr2:uid="{82DF330C-F9F6-A848-8D53-643A6ABE55CB}"/>
+    <workbookView xWindow="3900" yWindow="980" windowWidth="27240" windowHeight="15480" xr2:uid="{82DF330C-F9F6-A848-8D53-643A6ABE55CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>U0025.bmp</t>
   </si>
@@ -60,9 +60,6 @@
     <t>U0137.bmp</t>
   </si>
   <si>
-    <t>U0361.bmp</t>
-  </si>
-  <si>
     <t>U0312.bmp</t>
   </si>
   <si>
@@ -94,6 +91,60 @@
   </si>
   <si>
     <t>gender(over 90% agreement)</t>
+  </si>
+  <si>
+    <t>new_name</t>
+  </si>
+  <si>
+    <t>1.bmp</t>
+  </si>
+  <si>
+    <t>2.bmp</t>
+  </si>
+  <si>
+    <t>3.bmp</t>
+  </si>
+  <si>
+    <t>4.bmp</t>
+  </si>
+  <si>
+    <t>5.bmp</t>
+  </si>
+  <si>
+    <t>6.bmp</t>
+  </si>
+  <si>
+    <t>7.bmp</t>
+  </si>
+  <si>
+    <t>8.bmp</t>
+  </si>
+  <si>
+    <t>9.bmp</t>
+  </si>
+  <si>
+    <t>10.bmp</t>
+  </si>
+  <si>
+    <t>11.bmp</t>
+  </si>
+  <si>
+    <t>12.bmp</t>
+  </si>
+  <si>
+    <t>13.bmp</t>
+  </si>
+  <si>
+    <t>14.bmp</t>
+  </si>
+  <si>
+    <t>15.bmp</t>
+  </si>
+  <si>
+    <t>16.bmp</t>
+  </si>
+  <si>
+    <t>U0164.bmp</t>
   </si>
 </sst>
 </file>
@@ -445,32 +496,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510CF516-D3C4-BD4A-AD3E-FD7062EDD606}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -484,10 +541,13 @@
         <v>0.95</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -501,10 +561,13 @@
         <v>0.95</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -518,10 +581,13 @@
         <v>0.95</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -535,10 +601,13 @@
         <v>0.95</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -552,10 +621,13 @@
         <v>0.95</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -569,10 +641,13 @@
         <v>0.95</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -586,10 +661,13 @@
         <v>0.95</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -603,10 +681,13 @@
         <v>0.95</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -620,10 +701,13 @@
         <v>0.4</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -637,10 +721,13 @@
         <v>0.4</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -654,29 +741,35 @@
         <v>0.3</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>0.45</v>
+      </c>
+      <c r="C13">
+        <v>0.95</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.75</v>
-      </c>
-      <c r="C13">
-        <v>0.95</v>
-      </c>
-      <c r="D13">
-        <v>0.2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
       </c>
       <c r="B14">
         <v>0.35</v>
@@ -688,12 +781,15 @@
         <v>0.5</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>0.35</v>
@@ -705,12 +801,15 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>0.4</v>
@@ -722,12 +821,15 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>0.5</v>
@@ -739,7 +841,10 @@
         <v>0.5</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
